--- a/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
+++ b/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2721,4 +2722,1314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8871</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009653</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009654</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
+++ b/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4032,4 +4033,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1905</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5906</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5677</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4906</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
+++ b/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5115,4 +5116,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
+++ b/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5124,7 +5125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5135,17 +5136,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5155,14 +5176,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.77</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5171,14 +5214,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.99</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5187,14 +5252,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.04</v>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5203,13 +5290,1405 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8785</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6958</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6886</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6627</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5718</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5322</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4313</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
+++ b/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6587,7 +6588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6598,17 +6599,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6618,14 +6639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.91</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6634,14 +6677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.77</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1622</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6650,14 +6715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.99</v>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6666,14 +6753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.04</v>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6682,13 +6791,1073 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4780</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4459</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.460000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
+++ b/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7740,7 +7741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7751,17 +7752,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7771,14 +7792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.460000000000001</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7787,14 +7830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.91</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7803,14 +7868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.77</v>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8717</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7819,14 +7906,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.99</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -7835,14 +7944,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.04</v>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6776</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -7851,13 +7982,1359 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4839</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4397</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.460000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
+++ b/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>12.14</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>8.460000000000001</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>22.91</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>11.77</v>
+        <v>22.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>11.99</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>7.04</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.62</v>
       </c>
     </row>
@@ -600,6 +617,972 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2059,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3211,7 +4194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4673,7 +5656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5755,7 +6738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7065,7 +8048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7995,7 +8978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
+++ b/数据整理/stocks/A股/上证主板/603187-海容冷链.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>5.39</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>12.14</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>8.460000000000001</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>22.91</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>11.77</v>
+        <v>22.91</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>11.99</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>7.04</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1378 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0847</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1982,1428 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6911</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5878</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3282</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1582,7 +4369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3042,7 +5829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4194,7 +6981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5656,7 +8443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6738,7 +9525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8048,7 +10835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8976,1352 +11763,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008297</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发价值优势混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.8869</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001186</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国文体健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5162</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>040004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安宝利配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>44.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4742</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009069</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3225</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000628</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.0847</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安安信消费混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>24.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8208</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>270022</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发内需增长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6645</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2427</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008271</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2241</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004995</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2191</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>217001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商安泰混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>73.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1991</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005005</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>73.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1673</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011066</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成高新技术产业股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1292</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0990</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002331</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰康安泰回报混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0903</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001798</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰康新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0867</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003601</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0785</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009070</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成睿鑫股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.40</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009448</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000530</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>95.21</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003000</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商丰德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>31.09</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008272</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>大成优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010245</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>10.37</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002417</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>95.21</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003602</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>410009</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华富量子生命力混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001799</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>泰康新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009449</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>49.70</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>011183</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>广发内需增长混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003001</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>招商丰德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>31.09</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005006</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>73.52</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>